--- a/biology/Botanique/Cupaniopsis_anacardioides/Cupaniopsis_anacardioides.xlsx
+++ b/biology/Botanique/Cupaniopsis_anacardioides/Cupaniopsis_anacardioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupaniopsis anacardioides est un arbre des forêts de l'Australie orientale et septentrionale. Son habitat naturel est dans la forêt tropicale, les sables du littoral ou des estuaires. Son aire de répartition va de Seven Mile Beach (34° S), en Nouvelle-Galles du Sud, au Queensland et en Nouvelle-Guinée.
 Il est devenu une plante envahissante dans certaines régions des États-Unis, principalement en Floride et à Hawaï.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre (au plus 10 m de haut) à feuillage attrayant,
 L'écorce est lisse est grise ou brune avec des lignes en relief horizontal.
@@ -547,7 +561,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante intéressante comme plante ornementale ou un arbre de rue, en particulier dans les régions côtières.
 </t>
@@ -578,7 +594,9 @@
           <t>Gallery</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			feuilles, fruits et graines
